--- a/downloads/all-sprints.xlsx
+++ b/downloads/all-sprints.xlsx
@@ -3691,6 +3691,4905 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Count of Assignees</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Toufique</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Aditya</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maisie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sum of Estimation by Assignee</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Estimation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Toufique</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maisie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Count of Assignees</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MAK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Toufique</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sum of Estimation by Assignee</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Estimation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>MAK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Toufique</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Count of Assignees</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Toufique</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sum of Estimation by Assignee</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Estimation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Toufique</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Count of Assignees</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sanad</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sum of Estimation by Assignee</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Estimation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sanad</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Count of Assignees</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sanad</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sum of Estimation by Assignee</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Estimation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sanad</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Count of Assignees</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sanad</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sum of Estimation by Assignee</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Estimation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Toufique</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Aditya</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maisie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sum of Estimation by Assignee</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Estimation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sanad</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Count of Assignees</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sanad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sum of Estimation by Assignee</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Estimation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sanad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Count of Assignees</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Aditya</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Toufique</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maisie</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sum of Estimation by Assignee</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Estimation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Aditya</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Toufique</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maisie</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Count of Assignees</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Toufique</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maisie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sum of Estimation by Assignee</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Estimation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Toufique</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maisie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Count of Assignees</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Toufique</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maisie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sum of Estimation by Assignee</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Estimation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Toufique</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maisie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Count of Assignees</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bhuvan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ritu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Abhyan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MAK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Toufique</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maisie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f/>
+              <c:numCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 1" id="1025"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 2" id="2050"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 1" id="1025"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 2" id="2050"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 1" id="1025"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 2" id="2050"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 1" id="1025"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 2" id="2050"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 1" id="1025"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 2" id="2050"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 1" id="1025"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 2" id="2050"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 1" id="1025"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 2" id="2050"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 1" id="1025"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 2" id="2050"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 1" id="1025"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 2" id="2050"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 1" id="1025"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 2" id="2050"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 1" id="1025"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 2" id="2050"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3992,12 +8891,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="575.574" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="60" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="65.984" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="60" customWidth="true" style="0"/>
     <col min="8" max="8" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="25.708" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="16.282" bestFit="true" customWidth="true" style="0"/>
@@ -4060,9 +8959,7 @@
       <c r="H2" s="2">
         <v>100</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
@@ -4090,9 +8987,7 @@
       <c r="H3" s="2">
         <v>100</v>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
@@ -4120,9 +9015,7 @@
       <c r="H4" s="2">
         <v>90</v>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
@@ -4150,9 +9043,7 @@
       <c r="H5" s="2">
         <v>90</v>
       </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
@@ -4180,9 +9071,7 @@
       <c r="H6" s="2">
         <v>90</v>
       </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
@@ -4210,9 +9099,7 @@
       <c r="H7" s="2">
         <v>100</v>
       </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
@@ -4240,9 +9127,7 @@
       <c r="H8" s="2">
         <v>95</v>
       </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
@@ -4270,9 +9155,7 @@
       <c r="H9" s="2">
         <v>80</v>
       </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
@@ -4300,9 +9183,7 @@
       <c r="H10" s="2">
         <v>50</v>
       </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
@@ -4330,9 +9211,7 @@
       <c r="H11" s="2">
         <v>90</v>
       </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
@@ -4360,9 +9239,7 @@
       <c r="H12" s="2">
         <v>90</v>
       </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
@@ -4390,9 +9267,7 @@
       <c r="H13" s="2">
         <v>90</v>
       </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
@@ -4420,9 +9295,7 @@
       <c r="H14" s="2">
         <v>100</v>
       </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10">
@@ -4450,9 +9323,7 @@
       <c r="H15" s="2">
         <v>100</v>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
@@ -4480,9 +9351,7 @@
       <c r="H16" s="2">
         <v>90</v>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
@@ -4510,9 +9379,7 @@
       <c r="H17" s="2">
         <v>90</v>
       </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
@@ -4540,9 +9407,7 @@
       <c r="H18" s="2">
         <v>100</v>
       </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
@@ -4570,9 +9435,7 @@
       <c r="H19" s="2">
         <v>100</v>
       </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
@@ -4600,9 +9463,7 @@
       <c r="H20" s="2">
         <v>100</v>
       </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
@@ -4630,9 +9491,7 @@
       <c r="H21" s="2">
         <v>100</v>
       </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10">
@@ -4660,9 +9519,7 @@
       <c r="H22" s="2">
         <v>100</v>
       </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10">
@@ -4690,9 +9547,7 @@
       <c r="H23" s="2">
         <v>100</v>
       </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10">
@@ -4720,9 +9575,7 @@
       <c r="H24" s="2">
         <v>100</v>
       </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10">
@@ -4750,9 +9603,7 @@
       <c r="H25" s="2">
         <v>100</v>
       </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10">
@@ -4780,9 +9631,7 @@
       <c r="H26" s="2">
         <v>80</v>
       </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10">
@@ -4810,9 +9659,7 @@
       <c r="H27" s="2">
         <v>100</v>
       </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10">
@@ -4840,9 +9687,7 @@
       <c r="H28" s="2">
         <v>100</v>
       </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10">
@@ -4870,9 +9715,7 @@
       <c r="H29" s="2">
         <v>100</v>
       </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10">
@@ -4900,9 +9743,7 @@
       <c r="H30" s="2">
         <v>100</v>
       </c>
-      <c r="I30" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10">
@@ -4930,9 +9771,7 @@
       <c r="H31" s="2">
         <v>100</v>
       </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10">
@@ -4960,9 +9799,7 @@
       <c r="H32" s="2">
         <v>100</v>
       </c>
-      <c r="I32" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10">
@@ -4990,9 +9827,7 @@
       <c r="H33" s="2">
         <v>100</v>
       </c>
-      <c r="I33" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10">
@@ -5020,9 +9855,7 @@
       <c r="H34" s="2">
         <v>90</v>
       </c>
-      <c r="I34" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10">
@@ -5050,9 +9883,7 @@
       <c r="H35" s="2">
         <v>100</v>
       </c>
-      <c r="I35" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10">
@@ -5080,9 +9911,7 @@
       <c r="H36" s="2">
         <v>100</v>
       </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10">
@@ -5110,9 +9939,7 @@
       <c r="H37" s="2">
         <v>100</v>
       </c>
-      <c r="I37" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10">
@@ -5140,9 +9967,7 @@
       <c r="H38" s="2">
         <v>100</v>
       </c>
-      <c r="I38" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10">
@@ -5170,9 +9995,7 @@
       <c r="H39" s="2">
         <v>100</v>
       </c>
-      <c r="I39" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10">
@@ -5200,9 +10023,7 @@
       <c r="H40" s="2">
         <v>100</v>
       </c>
-      <c r="I40" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10">
@@ -5230,9 +10051,7 @@
       <c r="H41" s="2">
         <v>80</v>
       </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10">
@@ -5260,9 +10079,7 @@
       <c r="H42" s="2">
         <v>100</v>
       </c>
-      <c r="I42" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10">
@@ -5290,9 +10107,7 @@
       <c r="H43" s="2">
         <v>100</v>
       </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10">
@@ -5320,9 +10135,7 @@
       <c r="H44" s="2">
         <v>90</v>
       </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10">
@@ -5350,9 +10163,7 @@
       <c r="H45" s="2">
         <v>100</v>
       </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10">
@@ -5380,9 +10191,7 @@
       <c r="H46" s="2">
         <v>90</v>
       </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10">
@@ -5410,9 +10219,7 @@
       <c r="H47" s="2">
         <v>70</v>
       </c>
-      <c r="I47" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10">
@@ -5440,9 +10247,7 @@
       <c r="H48" s="2">
         <v>50</v>
       </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10">
@@ -5470,9 +10275,7 @@
       <c r="H49" s="2">
         <v>100</v>
       </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10">
@@ -5500,15 +10303,14 @@
       <c r="H50" s="2">
         <v>90</v>
       </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5526,12 +10328,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="692.402" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="60" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="68.269" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="60" customWidth="true" style="0"/>
     <col min="8" max="8" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="25.708" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="16.282" bestFit="true" customWidth="true" style="0"/>
@@ -5594,9 +10396,7 @@
       <c r="H2" s="2">
         <v>100</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
@@ -5624,9 +10424,7 @@
       <c r="H3" s="2">
         <v>100</v>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
@@ -5654,9 +10452,7 @@
       <c r="H4" s="2">
         <v>100</v>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
@@ -5684,9 +10480,7 @@
       <c r="H5" s="2">
         <v>100</v>
       </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
@@ -5714,9 +10508,7 @@
       <c r="H6" s="2">
         <v>100</v>
       </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
@@ -5744,9 +10536,7 @@
       <c r="H7" s="2">
         <v>90</v>
       </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
@@ -5774,9 +10564,7 @@
       <c r="H8" s="2">
         <v>90</v>
       </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
@@ -5804,9 +10592,7 @@
       <c r="H9" s="2">
         <v>90</v>
       </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
@@ -5834,9 +10620,7 @@
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
@@ -5864,15 +10648,14 @@
       <c r="H11" s="2">
         <v>80</v>
       </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5890,12 +10673,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="692.402" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="60" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="130.825" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="60" customWidth="true" style="0"/>
     <col min="8" max="8" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="25.708" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="16.282" bestFit="true" customWidth="true" style="0"/>
@@ -5958,7 +10741,7 @@
       <c r="H2" s="2">
         <v>100</v>
       </c>
-      <c r="I2" s="2" t="b">
+      <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -5990,9 +10773,7 @@
       <c r="H3" s="2">
         <v>100</v>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
@@ -6020,9 +10801,7 @@
       <c r="H4" s="2">
         <v>90</v>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
@@ -6050,7 +10829,7 @@
       <c r="H5" s="2">
         <v>100</v>
       </c>
-      <c r="I5" s="2" t="b">
+      <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -6082,9 +10861,7 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
@@ -6112,9 +10889,7 @@
       <c r="H7" s="2">
         <v>60</v>
       </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
@@ -6142,9 +10917,7 @@
       <c r="H8" s="2">
         <v>80</v>
       </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
@@ -6172,9 +10945,7 @@
       <c r="H9" s="2">
         <v>90</v>
       </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
@@ -6202,15 +10973,14 @@
       <c r="H10" s="2">
         <v>99</v>
       </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6228,12 +10998,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="674.692" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="60" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="76.553" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="60" customWidth="true" style="0"/>
     <col min="8" max="8" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="25.708" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="16.282" bestFit="true" customWidth="true" style="0"/>
@@ -6296,9 +11066,7 @@
       <c r="H2" s="2">
         <v>100</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
@@ -6326,9 +11094,7 @@
       <c r="H3" s="2">
         <v>100</v>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
@@ -6356,9 +11122,7 @@
       <c r="H4" s="2">
         <v>100</v>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
@@ -6386,9 +11150,7 @@
       <c r="H5" s="2">
         <v>100</v>
       </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
@@ -6416,9 +11178,7 @@
       <c r="H6" s="2">
         <v>100</v>
       </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
@@ -6446,9 +11206,7 @@
       <c r="H7" s="2">
         <v>100</v>
       </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
@@ -6476,9 +11234,7 @@
       <c r="H8" s="2">
         <v>100</v>
       </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
@@ -6506,9 +11262,7 @@
       <c r="H9" s="2">
         <v>100</v>
       </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
@@ -6536,9 +11290,7 @@
       <c r="H10" s="2">
         <v>100</v>
       </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
@@ -6566,9 +11318,7 @@
       <c r="H11" s="2">
         <v>100</v>
       </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
@@ -6596,9 +11346,7 @@
       <c r="H12" s="2">
         <v>100</v>
       </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
@@ -6626,9 +11374,7 @@
       <c r="H13" s="2">
         <v>100</v>
       </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
@@ -6656,9 +11402,7 @@
       <c r="H14" s="2">
         <v>100</v>
       </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10">
@@ -6686,9 +11430,7 @@
       <c r="H15" s="2">
         <v>80</v>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
@@ -6716,9 +11458,7 @@
       <c r="H16" s="2">
         <v>80</v>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
@@ -6746,9 +11486,7 @@
       <c r="H17" s="2">
         <v>80</v>
       </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
@@ -6776,9 +11514,7 @@
       <c r="H18" s="2">
         <v>80</v>
       </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
@@ -6806,9 +11542,7 @@
       <c r="H19" s="2">
         <v>70</v>
       </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
@@ -6836,9 +11570,7 @@
       <c r="H20" s="2">
         <v>90</v>
       </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
@@ -6866,9 +11598,7 @@
       <c r="H21" s="2">
         <v>90</v>
       </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10">
@@ -6896,9 +11626,7 @@
       <c r="H22" s="2">
         <v>70</v>
       </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10">
@@ -6926,9 +11654,7 @@
       <c r="H23" s="2">
         <v>50</v>
       </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10">
@@ -6956,9 +11682,7 @@
       <c r="H24" s="2">
         <v>90</v>
       </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10">
@@ -6986,9 +11710,7 @@
       <c r="H25" s="2">
         <v>80</v>
       </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10">
@@ -7016,9 +11738,7 @@
       <c r="H26" s="2">
         <v>80</v>
       </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10">
@@ -7046,9 +11766,7 @@
       <c r="H27" s="2">
         <v>100</v>
       </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10">
@@ -7076,9 +11794,7 @@
       <c r="H28" s="2">
         <v>100</v>
       </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10">
@@ -7106,9 +11822,7 @@
       <c r="H29" s="2">
         <v>90</v>
       </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10">
@@ -7136,9 +11850,7 @@
       <c r="H30" s="2">
         <v>50</v>
       </c>
-      <c r="I30" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10">
@@ -7166,9 +11878,7 @@
       <c r="H31" s="2">
         <v>80</v>
       </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10">
@@ -7196,9 +11906,7 @@
       <c r="H32" s="2">
         <v>90</v>
       </c>
-      <c r="I32" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10">
@@ -7226,9 +11934,7 @@
       <c r="H33" s="2">
         <v>100</v>
       </c>
-      <c r="I33" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10">
@@ -7256,9 +11962,7 @@
       <c r="H34" s="2">
         <v>90</v>
       </c>
-      <c r="I34" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10">
@@ -7286,9 +11990,7 @@
       <c r="H35" s="2">
         <v>100</v>
       </c>
-      <c r="I35" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10">
@@ -7316,9 +12018,7 @@
       <c r="H36" s="2">
         <v>100</v>
       </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10">
@@ -7346,9 +12046,7 @@
       <c r="H37" s="2">
         <v>100</v>
       </c>
-      <c r="I37" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10">
@@ -7376,9 +12074,7 @@
       <c r="H38" s="2">
         <v>100</v>
       </c>
-      <c r="I38" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10">
@@ -7406,9 +12102,7 @@
       <c r="H39" s="2">
         <v>50</v>
       </c>
-      <c r="I39" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10">
@@ -7436,9 +12130,7 @@
       <c r="H40" s="2">
         <v>100</v>
       </c>
-      <c r="I40" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10">
@@ -7466,9 +12158,7 @@
       <c r="H41" s="2">
         <v>80</v>
       </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10">
@@ -7496,9 +12186,7 @@
       <c r="H42" s="2">
         <v>90</v>
       </c>
-      <c r="I42" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10">
@@ -7526,9 +12214,7 @@
       <c r="H43" s="2">
         <v>100</v>
       </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10">
@@ -7556,9 +12242,7 @@
       <c r="H44" s="2">
         <v>90</v>
       </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10">
@@ -7586,9 +12270,7 @@
       <c r="H45" s="2">
         <v>90</v>
       </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10">
@@ -7616,9 +12298,7 @@
       <c r="H46" s="2">
         <v>80</v>
       </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10">
@@ -7646,9 +12326,7 @@
       <c r="H47" s="2">
         <v>80</v>
       </c>
-      <c r="I47" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10">
@@ -7676,9 +12354,7 @@
       <c r="H48" s="2">
         <v>100</v>
       </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10">
@@ -7706,9 +12382,7 @@
       <c r="H49" s="2">
         <v>100</v>
       </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10">
@@ -7736,9 +12410,7 @@
       <c r="H50" s="2">
         <v>90</v>
       </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10">
@@ -7766,9 +12438,7 @@
       <c r="H51" s="2">
         <v>60</v>
       </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10">
@@ -7796,9 +12466,7 @@
       <c r="H52" s="2">
         <v>100</v>
       </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10">
@@ -7826,15 +12494,14 @@
       <c r="H53" s="2">
         <v>100</v>
       </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7852,12 +12519,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="674.692" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="60" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="64.841" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="60" customWidth="true" style="0"/>
     <col min="8" max="8" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="25.708" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="16.282" bestFit="true" customWidth="true" style="0"/>
@@ -7920,9 +12587,7 @@
       <c r="H2" s="2">
         <v>100</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
@@ -7950,9 +12615,7 @@
       <c r="H3" s="2">
         <v>100</v>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
@@ -7980,9 +12643,7 @@
       <c r="H4" s="2">
         <v>99</v>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
@@ -8010,9 +12671,7 @@
       <c r="H5" s="2">
         <v>100</v>
       </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
@@ -8040,9 +12699,7 @@
       <c r="H6" s="2">
         <v>100</v>
       </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
@@ -8070,9 +12727,7 @@
       <c r="H7" s="2">
         <v>90</v>
       </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
@@ -8100,9 +12755,7 @@
       <c r="H8" s="2">
         <v>100</v>
       </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
@@ -8130,9 +12783,7 @@
       <c r="H9" s="2">
         <v>99</v>
       </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
@@ -8160,9 +12811,7 @@
       <c r="H10" s="2">
         <v>70</v>
       </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
@@ -8190,9 +12839,7 @@
       <c r="H11" s="2">
         <v>85</v>
       </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
@@ -8220,9 +12867,7 @@
       <c r="H12" s="2">
         <v>80</v>
       </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
@@ -8248,9 +12893,7 @@
       <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
@@ -8278,9 +12921,7 @@
       <c r="H14" s="2">
         <v>80</v>
       </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10">
@@ -8308,9 +12949,7 @@
       <c r="H15" s="2">
         <v>90</v>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
@@ -8338,9 +12977,7 @@
       <c r="H16" s="2">
         <v>90</v>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
@@ -8366,9 +13003,7 @@
       <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
@@ -8394,9 +13029,7 @@
       <c r="H18" s="2">
         <v>100</v>
       </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
@@ -8424,9 +13057,7 @@
       <c r="H19" s="2">
         <v>95</v>
       </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
@@ -8452,9 +13083,7 @@
       <c r="H20" s="2">
         <v>0</v>
       </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
@@ -8480,9 +13109,7 @@
       <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10">
@@ -8510,9 +13137,7 @@
       <c r="H22" s="2">
         <v>40</v>
       </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10">
@@ -8538,9 +13163,7 @@
       <c r="H23" s="2">
         <v>0</v>
       </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10">
@@ -8566,9 +13189,7 @@
       <c r="H24" s="2">
         <v>0</v>
       </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10">
@@ -8596,9 +13217,7 @@
       <c r="H25" s="2">
         <v>100</v>
       </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10">
@@ -8626,9 +13245,7 @@
       <c r="H26" s="2">
         <v>85</v>
       </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10">
@@ -8656,9 +13273,7 @@
       <c r="H27" s="2">
         <v>90</v>
       </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10">
@@ -8686,9 +13301,7 @@
       <c r="H28" s="2">
         <v>100</v>
       </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10">
@@ -8714,15 +13327,14 @@
       <c r="H29" s="2">
         <v>0</v>
       </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8740,12 +13352,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="674.692" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="60" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="64.841" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="60" customWidth="true" style="0"/>
     <col min="8" max="8" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="25.708" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="16.282" bestFit="true" customWidth="true" style="0"/>
@@ -8806,9 +13418,7 @@
       <c r="H2" s="2">
         <v>100</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
@@ -8834,9 +13444,7 @@
       <c r="H3" s="2">
         <v>100</v>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
@@ -8864,9 +13472,7 @@
       <c r="H4" s="2">
         <v>100</v>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
@@ -8894,9 +13500,7 @@
       <c r="H5" s="2">
         <v>100</v>
       </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
@@ -8924,9 +13528,7 @@
       <c r="H6" s="2">
         <v>99</v>
       </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
@@ -8954,9 +13556,7 @@
       <c r="H7" s="2">
         <v>100</v>
       </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
@@ -8984,9 +13584,7 @@
       <c r="H8" s="2">
         <v>100</v>
       </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
@@ -9014,9 +13612,7 @@
       <c r="H9" s="2">
         <v>90</v>
       </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
@@ -9044,9 +13640,7 @@
       <c r="H10" s="2">
         <v>100</v>
       </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
@@ -9074,9 +13668,7 @@
       <c r="H11" s="2">
         <v>95</v>
       </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
@@ -9104,9 +13696,7 @@
       <c r="H12" s="2">
         <v>70</v>
       </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
@@ -9134,9 +13724,7 @@
       <c r="H13" s="2">
         <v>85</v>
       </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
@@ -9162,9 +13750,7 @@
       <c r="H14" s="2">
         <v>0</v>
       </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10">
@@ -9192,9 +13778,7 @@
       <c r="H15" s="2">
         <v>80</v>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
@@ -9222,9 +13806,7 @@
       <c r="H16" s="2">
         <v>90</v>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
@@ -9252,9 +13834,7 @@
       <c r="H17" s="2">
         <v>10</v>
       </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
@@ -9282,9 +13862,7 @@
       <c r="H18" s="2">
         <v>100</v>
       </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
@@ -9312,9 +13890,7 @@
       <c r="H19" s="2">
         <v>85</v>
       </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
@@ -9342,15 +13918,14 @@
       <c r="H20" s="2">
         <v>100</v>
       </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9368,12 +13943,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="674.692" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="60" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="95.405" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="60" customWidth="true" style="0"/>
     <col min="8" max="8" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="25.708" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="16.282" bestFit="true" customWidth="true" style="0"/>
@@ -9434,9 +14009,7 @@
       <c r="H2" s="2">
         <v>100</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
@@ -9462,9 +14035,7 @@
       <c r="H3" s="2">
         <v>100</v>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
@@ -9490,9 +14061,7 @@
       <c r="H4" s="2">
         <v>100</v>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
@@ -9520,9 +14089,7 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
@@ -9548,9 +14115,7 @@
       <c r="H6" s="2">
         <v>100</v>
       </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
@@ -9576,9 +14141,7 @@
       <c r="H7" s="2">
         <v>100</v>
       </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
@@ -9604,9 +14167,7 @@
       <c r="H8" s="2">
         <v>100</v>
       </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
@@ -9632,9 +14193,7 @@
       <c r="H9" s="2">
         <v>100</v>
       </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
@@ -9660,9 +14219,7 @@
       <c r="H10" s="2">
         <v>100</v>
       </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
@@ -9690,9 +14247,7 @@
       <c r="H11" s="2">
         <v>95</v>
       </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
@@ -9718,9 +14273,7 @@
       <c r="H12" s="2">
         <v>95</v>
       </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
@@ -9748,9 +14301,7 @@
       <c r="H13" s="2">
         <v>100</v>
       </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
@@ -9778,9 +14329,7 @@
       <c r="H14" s="2">
         <v>100</v>
       </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10">
@@ -9808,9 +14357,7 @@
       <c r="H15" s="2">
         <v>95</v>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
@@ -9838,9 +14385,7 @@
       <c r="H16" s="2">
         <v>90</v>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
@@ -9868,9 +14413,7 @@
       <c r="H17" s="2">
         <v>90</v>
       </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
@@ -9898,9 +14441,7 @@
       <c r="H18" s="2">
         <v>80</v>
       </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
@@ -9928,9 +14469,7 @@
       <c r="H19" s="2">
         <v>99</v>
       </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
@@ -9958,9 +14497,7 @@
       <c r="H20" s="2">
         <v>99</v>
       </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
@@ -9986,9 +14523,7 @@
       <c r="H21" s="2">
         <v>30</v>
       </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10">
@@ -10014,9 +14549,7 @@
       <c r="H22" s="2">
         <v>80</v>
       </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10">
@@ -10042,9 +14575,7 @@
       <c r="H23" s="2">
         <v>0</v>
       </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10">
@@ -10070,9 +14601,7 @@
       <c r="H24" s="2">
         <v>40</v>
       </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10">
@@ -10100,9 +14629,7 @@
       <c r="H25" s="2">
         <v>85</v>
       </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10">
@@ -10130,9 +14657,7 @@
       <c r="H26" s="2">
         <v>10</v>
       </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10">
@@ -10158,9 +14683,7 @@
       <c r="H27" s="2">
         <v>0</v>
       </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10">
@@ -10186,9 +14709,7 @@
       <c r="H28" s="2">
         <v>20</v>
       </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10">
@@ -10216,15 +14737,14 @@
       <c r="H29" s="2">
         <v>20</v>
       </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10242,12 +14762,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="514.303" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="60" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="77.695" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="60" customWidth="true" style="0"/>
     <col min="8" max="8" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="25.708" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="16.282" bestFit="true" customWidth="true" style="0"/>
@@ -10308,9 +14828,7 @@
       <c r="H2" s="2">
         <v>100</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
@@ -10336,9 +14854,7 @@
       <c r="H3" s="2">
         <v>100</v>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
@@ -10364,9 +14880,7 @@
       <c r="H4" s="2">
         <v>100</v>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
@@ -10394,9 +14908,7 @@
       <c r="H5" s="2">
         <v>100</v>
       </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
@@ -10424,9 +14936,7 @@
       <c r="H6" s="2">
         <v>95</v>
       </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
@@ -10452,9 +14962,7 @@
       <c r="H7" s="2">
         <v>95</v>
       </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
@@ -10480,9 +14988,7 @@
       <c r="H8" s="2">
         <v>99</v>
       </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
@@ -10510,9 +15016,7 @@
       <c r="H9" s="2">
         <v>90</v>
       </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
@@ -10540,9 +15044,7 @@
       <c r="H10" s="2">
         <v>100</v>
       </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
@@ -10568,9 +15070,7 @@
       <c r="H11" s="2">
         <v>90</v>
       </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
@@ -10598,9 +15098,7 @@
       <c r="H12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
@@ -10626,9 +15124,7 @@
       <c r="H13" s="2">
         <v>50</v>
       </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
@@ -10656,9 +15152,7 @@
       <c r="H14" s="2">
         <v>90</v>
       </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10">
@@ -10684,9 +15178,7 @@
       <c r="H15" s="2">
         <v>100</v>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
@@ -10714,9 +15206,7 @@
       <c r="H16" s="2">
         <v>95</v>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
@@ -10742,9 +15232,7 @@
       <c r="H17" s="2">
         <v>95</v>
       </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
@@ -10770,9 +15258,7 @@
       <c r="H18" s="2">
         <v>90</v>
       </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
@@ -10800,9 +15286,7 @@
       <c r="H19" s="2">
         <v>80</v>
       </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
@@ -10828,9 +15312,7 @@
       <c r="H20" s="2">
         <v>95</v>
       </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
@@ -10856,9 +15338,7 @@
       <c r="H21" s="2">
         <v>95</v>
       </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10">
@@ -10886,9 +15366,7 @@
       <c r="H22" s="2">
         <v>70</v>
       </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10">
@@ -10914,9 +15392,7 @@
       <c r="H23" s="2">
         <v>0</v>
       </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10">
@@ -10942,15 +15418,14 @@
       <c r="H24" s="2">
         <v>20</v>
       </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10968,12 +15443,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="617.992" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="60" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="70.697" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="60" customWidth="true" style="0"/>
     <col min="8" max="8" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="25.708" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="16.282" bestFit="true" customWidth="true" style="0"/>
@@ -11036,9 +15511,7 @@
       <c r="H2" s="2">
         <v>100</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
@@ -11066,9 +15539,7 @@
       <c r="H3" s="2">
         <v>100</v>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
@@ -11094,9 +15565,7 @@
       <c r="H4" s="2">
         <v>100</v>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
@@ -11124,9 +15593,7 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
@@ -11154,9 +15621,7 @@
       <c r="H6" s="2">
         <v>100</v>
       </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
@@ -11184,9 +15649,7 @@
       <c r="H7" s="2">
         <v>100</v>
       </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
@@ -11212,9 +15675,7 @@
       <c r="H8" s="2">
         <v>100</v>
       </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
@@ -11242,9 +15703,7 @@
       <c r="H9" s="2">
         <v>100</v>
       </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
@@ -11270,9 +15729,7 @@
       <c r="H10" s="2">
         <v>100</v>
       </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
@@ -11298,9 +15755,7 @@
       <c r="H11" s="2">
         <v>100</v>
       </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
@@ -11328,9 +15783,7 @@
       <c r="H12" s="2">
         <v>100</v>
       </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
@@ -11356,9 +15809,7 @@
       <c r="H13" s="2">
         <v>80</v>
       </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
@@ -11386,9 +15837,7 @@
       <c r="H14" s="2">
         <v>100</v>
       </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10">
@@ -11414,9 +15863,7 @@
       <c r="H15" s="2">
         <v>100</v>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
@@ -11442,9 +15889,7 @@
       <c r="H16" s="2">
         <v>100</v>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
@@ -11472,9 +15917,7 @@
       <c r="H17" s="2">
         <v>90</v>
       </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
@@ -11502,9 +15945,7 @@
       <c r="H18" s="2">
         <v>90</v>
       </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
@@ -11532,9 +15973,7 @@
       <c r="H19" s="2">
         <v>100</v>
       </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
@@ -11560,9 +15999,7 @@
       <c r="H20" s="2">
         <v>50</v>
       </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
@@ -11588,9 +16025,7 @@
       <c r="H21" s="2">
         <v>20</v>
       </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10">
@@ -11618,9 +16053,7 @@
       <c r="H22" s="2">
         <v>100</v>
       </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10">
@@ -11646,15 +16079,14 @@
       <c r="H23" s="2">
         <v>20</v>
       </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11672,12 +16104,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="617.992" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="60" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="69.554" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="60" customWidth="true" style="0"/>
     <col min="8" max="8" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="25.708" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="16.425" bestFit="true" customWidth="true" style="0"/>
@@ -11740,9 +16172,7 @@
       <c r="H2" s="2">
         <v>100</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
@@ -11770,8 +16200,8 @@
       <c r="H3" s="2">
         <v>100</v>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>1</v>
+      <c r="I3" s="2">
+        <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>313</v>
@@ -11802,9 +16232,7 @@
       <c r="H4" s="2">
         <v>100</v>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
@@ -11832,9 +16260,7 @@
       <c r="H5" s="2">
         <v>100</v>
       </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
@@ -11862,9 +16288,7 @@
       <c r="H6" s="2">
         <v>95</v>
       </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
@@ -11892,9 +16316,7 @@
       <c r="H7" s="2">
         <v>95</v>
       </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
@@ -11922,9 +16344,7 @@
       <c r="H8" s="2">
         <v>90</v>
       </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
@@ -11950,9 +16370,7 @@
       <c r="H9" s="2">
         <v>100</v>
       </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
@@ -11978,9 +16396,7 @@
       <c r="H10" s="2">
         <v>90</v>
       </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
@@ -12006,9 +16422,7 @@
       <c r="H11" s="2">
         <v>100</v>
       </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
@@ -12036,9 +16450,7 @@
       <c r="H12" s="2">
         <v>40</v>
       </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
@@ -12066,9 +16478,7 @@
       <c r="H13" s="2">
         <v>90</v>
       </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
@@ -12094,9 +16504,7 @@
       <c r="H14" s="2">
         <v>40</v>
       </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10">
@@ -12124,9 +16532,7 @@
       <c r="H15" s="2">
         <v>80</v>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
@@ -12154,9 +16560,7 @@
       <c r="H16" s="2">
         <v>80</v>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
@@ -12182,9 +16586,7 @@
       <c r="H17" s="2">
         <v>50</v>
       </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
@@ -12212,9 +16614,7 @@
       <c r="H18" s="2">
         <v>90</v>
       </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
@@ -12242,9 +16642,7 @@
       <c r="H19" s="2">
         <v>80</v>
       </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
@@ -12272,9 +16670,7 @@
       <c r="H20" s="2">
         <v>70</v>
       </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
@@ -12300,9 +16696,7 @@
       <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10">
@@ -12330,9 +16724,7 @@
       <c r="H22" s="2">
         <v>90</v>
       </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10">
@@ -12360,15 +16752,14 @@
       <c r="H23" s="2">
         <v>80</v>
       </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12386,12 +16777,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="617.992" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="60" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="64.841" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="60" customWidth="true" style="0"/>
     <col min="8" max="8" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="25.708" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="16.282" bestFit="true" customWidth="true" style="0"/>
@@ -12454,9 +16845,7 @@
       <c r="H2" s="2">
         <v>100</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
@@ -12484,9 +16873,7 @@
       <c r="H3" s="2">
         <v>100</v>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
@@ -12512,9 +16899,7 @@
       <c r="H4" s="2">
         <v>90</v>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
@@ -12540,8 +16925,8 @@
       <c r="H5" s="2">
         <v>90</v>
       </c>
-      <c r="I5" s="2" t="b">
-        <v>1</v>
+      <c r="I5" s="2">
+        <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>337</v>
@@ -12570,9 +16955,7 @@
       <c r="H6" s="2">
         <v>90</v>
       </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
@@ -12600,9 +16983,7 @@
       <c r="H7" s="2">
         <v>80</v>
       </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
@@ -12628,9 +17009,7 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
@@ -12658,9 +17037,7 @@
       <c r="H9" s="2">
         <v>80</v>
       </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
@@ -12686,9 +17063,7 @@
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
@@ -12716,9 +17091,7 @@
       <c r="H11" s="2">
         <v>50</v>
       </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
@@ -12744,9 +17117,7 @@
       <c r="H12" s="2">
         <v>90</v>
       </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
@@ -12772,9 +17143,7 @@
       <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
@@ -12800,9 +17169,7 @@
       <c r="H14" s="2">
         <v>0</v>
       </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10">
@@ -12828,9 +17195,7 @@
       <c r="H15" s="2">
         <v>40</v>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
@@ -12856,9 +17221,7 @@
       <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
@@ -12884,9 +17247,7 @@
       <c r="H17" s="2">
         <v>80</v>
       </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
@@ -12912,9 +17273,7 @@
       <c r="H18" s="2">
         <v>50</v>
       </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
@@ -12942,9 +17301,7 @@
       <c r="H19" s="2">
         <v>50</v>
       </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
@@ -12970,9 +17327,7 @@
       <c r="H20" s="2">
         <v>0</v>
       </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
@@ -12998,9 +17353,7 @@
       <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10">
@@ -13026,14 +17379,13 @@
       <c r="H22" s="2">
         <v>90</v>
       </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>